--- a/biology/Botanique/Descurainia_sophia/Descurainia_sophia.xlsx
+++ b/biology/Botanique/Descurainia_sophia/Descurainia_sophia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Descurainia sophia, l’herbe de sainte Sophie ou sagesse des chirurgiens, est une espèce de plantes à fleurs de la famille des Brassicaceae que l'on rencontre en Eurasie. Elle doit son nom à sainte Sophie.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée. La tige dressée et rameuse peut mesurer de 1 à 1,5 m de hauteur. Elle possède des feuilles très découpées, alternes, duveteuses comme la tige, qui mesurent de 1,5 à 8 cm de longueur et de 0,8 à 3 cm de largeur. Elles sont de couleur vert de gris. Ses petites fleurs de couleur jaune pâle possèdent des pétales de 2 mm de longueur en moyenne et d'1 mm de largeur en moyenne. Les sépales sont souvent plus courts que les pétales; les siliques cylindriques avec un pédicelle mince sont étalées et dressées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée. La tige dressée et rameuse peut mesurer de 1 à 1,5 m de hauteur. Elle possède des feuilles très découpées, alternes, duveteuses comme la tige, qui mesurent de 1,5 à 8 cm de longueur et de 0,8 à 3 cm de largeur. Elles sont de couleur vert de gris. Ses petites fleurs de couleur jaune pâle possèdent des pétales de 2 mm de longueur en moyenne et d'1 mm de largeur en moyenne. Les sépales sont souvent plus courts que les pétales; les siliques cylindriques avec un pédicelle mince sont étalées et dressées.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On l'appelle aussi Descurainie sagesse,  en latin: Sisymbrium sophia L.
-En italien: Erba sophia, Erba falcona; en allemand: Sophienkraut[2].
+En italien: Erba sophia, Erba falcona; en allemand: Sophienkraut.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (19 mai 2014)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (19 mai 2014) :
 sous-espèce Descurainia sophia subsp. bartschii (O.E.Schulz) C.Vural
-Selon Tropicos                                           (19 mai 2014)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 mai 2014) (Attention liste brute contenant possiblement des synonymes) :
 variété Descurainia sophia var. brachycarpa O.E. Schulz
 variété Descurainia sophia var. glabrata N. Busch
 variété Descurainia sophia var. macrophylla Prantl
@@ -610,10 +628,12 @@
           <t>Répartition et écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique. En Suisse, elle pousse dans les vallées.
-Sa valeur écologique de Landolt est R.234-435-u : plante rudérale supportant une sécheresse modérée pendant la période de végétation, sur sols peu acides et riches, en pleine lumière le plus souvent, à l'étage montagnard avec de grands écarts de température, exposée au vent et au soleil[2].
+Sa valeur écologique de Landolt est R.234-435-u : plante rudérale supportant une sécheresse modérée pendant la période de végétation, sur sols peu acides et riches, en pleine lumière le plus souvent, à l'étage montagnard avec de grands écarts de température, exposée au vent et au soleil.
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Franche-Comté et en Île-de-France.
 </t>
